--- a/2025/11/2025-11-15/15_combined_confidence.xlsx
+++ b/2025/11/2025-11-15/15_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Georgia - Spain : 16:00</t>
+          <t>Georgia - Spain ✓: 0:4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -491,12 +491,16 @@
       <c r="F2" t="n">
         <v>1.25</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cyprus - Austria : 16:00</t>
+          <t>Cyprus - Austria ✓: 0:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,195 +518,82 @@
       <c r="F3" t="n">
         <v>1.32</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kazakhstan - Belgium : 13:00</t>
+          <t>CA Boca Juniors  - Club Atlético Tigre: 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>CA Boca Juniors</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CA Boca Juniors  - Club Atlético Tigre: 22:00</t>
+          <t>Kazakhstan - Belgium : 1:1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CA Boca Juniors</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75</v>
+      </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>United States  - Paraguay: 21:00</t>
+          <t>Racing Santander  - Granada CF: 2:2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>South Africa  - Zambia: 12:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" t="n">
-        <v>65</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Haverfordwest County  - Colwyn Bay: 13:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Haverfordwest County</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>91</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Auckland United FC - Birkenhead United : 03:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Birkenhead United</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Greece  - Scotland: 18:45</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>34</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Slovenia  - Kosovo: 18:45</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
